--- a/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Tnfsf13-Tnfrsf13b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Tnfsf13</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,43 +522,43 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>22</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.634123166293367</v>
+        <v>0.637903</v>
       </c>
       <c r="H2">
-        <v>0.634123166293367</v>
+        <v>1.913709</v>
       </c>
       <c r="I2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="J2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.066609600314891</v>
+        <v>9.557669333333333</v>
       </c>
       <c r="N2">
-        <v>8.066609600314891</v>
+        <v>28.673008</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -564,16 +567,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>5.11522402100415</v>
+        <v>6.096865940741333</v>
       </c>
       <c r="R2">
-        <v>5.11522402100415</v>
+        <v>54.871793466672</v>
       </c>
       <c r="S2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714845</v>
       </c>
       <c r="T2">
-        <v>0.1734102292287197</v>
+        <v>0.1229013127714844</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,43 +584,43 @@
         <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.164862265629508</v>
+        <v>0.170281</v>
       </c>
       <c r="H3">
-        <v>0.164862265629508</v>
+        <v>0.510843</v>
       </c>
       <c r="I3">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="J3">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.066609600314891</v>
+        <v>9.557669333333333</v>
       </c>
       <c r="N3">
-        <v>8.066609600314891</v>
+        <v>28.673008</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -626,16 +629,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.329879534656653</v>
+        <v>1.627489491749333</v>
       </c>
       <c r="R3">
-        <v>1.329879534656653</v>
+        <v>14.647405425744</v>
       </c>
       <c r="S3">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
       <c r="T3">
-        <v>0.0450839912395708</v>
+        <v>0.03280711713229307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,43 +646,43 @@
         <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.85779519234462</v>
+        <v>3.407124666666667</v>
       </c>
       <c r="H4">
-        <v>2.85779519234462</v>
+        <v>10.221374</v>
       </c>
       <c r="I4">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="J4">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>8.066609600314891</v>
+        <v>9.557669333333333</v>
       </c>
       <c r="N4">
-        <v>8.066609600314891</v>
+        <v>28.673008</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -688,16 +691,78 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>23.05271813430085</v>
+        <v>32.56417094144356</v>
       </c>
       <c r="R4">
-        <v>23.05271813430085</v>
+        <v>293.077538472992</v>
       </c>
       <c r="S4">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153376</v>
       </c>
       <c r="T4">
-        <v>0.7815057795317095</v>
+        <v>0.6564322386153377</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.975059</v>
+      </c>
+      <c r="H5">
+        <v>2.925177</v>
+      </c>
+      <c r="I5">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="J5">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>9.557669333333333</v>
+      </c>
+      <c r="N5">
+        <v>28.673008</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>9.319291502490666</v>
+      </c>
+      <c r="R5">
+        <v>83.873623522416</v>
+      </c>
+      <c r="S5">
+        <v>0.1878593314808848</v>
+      </c>
+      <c r="T5">
+        <v>0.1878593314808848</v>
       </c>
     </row>
   </sheetData>
